--- a/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D3C2B7-3C36-4EB8-A0C2-097806A1949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{403D0C69-1082-403F-B890-AAB1C055FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9CAEC0E1-F050-4A40-854B-6976DC5182CF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E21E17FA-F337-4EE4-B31E-17310DB52864}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,33 +70,189 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
     <t>8,12%</t>
   </si>
   <si>
@@ -118,33 +274,6 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>36,66%</t>
   </si>
   <si>
@@ -172,30 +301,6 @@
     <t>41,68%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>56,68%</t>
   </si>
   <si>
@@ -223,109 +328,43 @@
     <t>57,35%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>4,72%</t>
@@ -355,24 +394,6 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>36,82%</t>
   </si>
   <si>
@@ -400,27 +421,6 @@
     <t>42,22%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
     <t>57,4%</t>
   </si>
   <si>
@@ -451,6 +451,138 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
@@ -475,24 +607,6 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>30,72%</t>
   </si>
   <si>
@@ -520,18 +634,6 @@
     <t>35,05%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>64,36%</t>
   </si>
   <si>
@@ -559,106 +661,49 @@
     <t>64,94%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>4,12%</t>
@@ -685,27 +730,6 @@
     <t>7,23%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>30,1%</t>
   </si>
   <si>
@@ -733,30 +757,6 @@
     <t>34,39%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>63,94%</t>
   </si>
   <si>
@@ -784,6 +784,147 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>5,72%</t>
   </si>
   <si>
@@ -808,27 +949,6 @@
     <t>8,15%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>35,86%</t>
   </si>
   <si>
@@ -856,24 +976,6 @@
     <t>39,52%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>57,86%</t>
   </si>
   <si>
@@ -901,106 +1003,40 @@
     <t>59,91%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>6,07%</t>
@@ -1030,30 +1066,6 @@
     <t>7,83%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>32,95%</t>
   </si>
   <si>
@@ -1076,18 +1088,6 @@
   </si>
   <si>
     <t>37,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
   </si>
   <si>
     <t>59,84%</t>
@@ -1503,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461EC44D-BF7D-4F78-9C82-06BEB45AA5DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C358B372-1E9A-4C21-A051-491953E0C8D0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13871</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1908,34 +1908,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>16604</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30475</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,46 +1947,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3215</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>3882</v>
+        <v>578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,49 +1995,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>91071</v>
+        <v>618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>96882</v>
+        <v>3168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>187953</v>
+        <v>3786</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,49 +2046,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>2006</v>
+        <v>21879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>1412</v>
+        <v>21546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>3418</v>
+        <v>43425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,49 +2097,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>140796</v>
+        <v>35308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>123651</v>
+        <v>24168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>264447</v>
+        <v>59476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,102 +2148,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>373</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>248411</v>
+        <v>58384</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>490174</v>
+        <v>107266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>618</v>
+        <v>2006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1412</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="I16" s="7">
-        <v>3168</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
       <c r="N16" s="7">
-        <v>3786</v>
+        <v>3418</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,46 +2255,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>578</v>
+        <v>3882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,49 +2303,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>21879</v>
+        <v>13871</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="7">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16604</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="7">
+        <v>46</v>
+      </c>
+      <c r="N18" s="7">
+        <v>30475</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21546</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="7">
-        <v>65</v>
-      </c>
-      <c r="N18" s="7">
-        <v>43425</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,46 +2354,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>91071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7">
+        <v>144</v>
+      </c>
+      <c r="I19" s="7">
+        <v>96882</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7">
+        <v>282</v>
+      </c>
+      <c r="N19" s="7">
+        <v>187953</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>86</v>
@@ -2405,10 +2405,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>35308</v>
+        <v>140796</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>87</v>
@@ -2420,10 +2420,10 @@
         <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="I20" s="7">
-        <v>24168</v>
+        <v>123651</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>90</v>
@@ -2435,10 +2435,10 @@
         <v>92</v>
       </c>
       <c r="M20" s="7">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="N20" s="7">
-        <v>59476</v>
+        <v>264447</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>93</v>
@@ -2456,49 +2456,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c r="D21" s="7">
-        <v>58384</v>
+        <v>248411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>107266</v>
+        <v>490174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>14489</v>
+        <v>2006</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>96</v>
@@ -2521,37 +2521,37 @@
         <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1412</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="7">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19772</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3418</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="7">
-        <v>52</v>
-      </c>
-      <c r="N22" s="7">
-        <v>34261</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>1245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2581,13 +2581,13 @@
         <v>3215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2596,13 +2596,13 @@
         <v>4460</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,49 +2611,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>112950</v>
+        <v>14489</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19772</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7">
-        <v>176</v>
-      </c>
-      <c r="I24" s="7">
-        <v>118428</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>52</v>
+      </c>
+      <c r="N24" s="7">
+        <v>34261</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="7">
-        <v>347</v>
-      </c>
-      <c r="N24" s="7">
-        <v>231378</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,40 +2662,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="D25" s="7">
-        <v>2006</v>
+        <v>112950</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>118428</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="N25" s="7">
-        <v>3418</v>
+        <v>231378</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>124</v>
@@ -2770,13 +2770,13 @@
         <v>306794</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -2785,13 +2785,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -2800,13 +2800,13 @@
         <v>597440</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B9F0A-0029-444C-B7B8-E39E0F2985D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9FC65-7635-48BD-81ED-9A4E037A7837}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3215,49 +3215,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>7420</v>
+        <v>654</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>695</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18029</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1349</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="7">
-        <v>37</v>
-      </c>
-      <c r="N10" s="7">
-        <v>25449</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,49 +3266,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3139</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1306</v>
+        <v>669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>4445</v>
+        <v>669</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,49 +3317,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>79649</v>
+        <v>5978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3492</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="7">
+        <v>13</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9471</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="7">
-        <v>114</v>
-      </c>
-      <c r="I12" s="7">
-        <v>78387</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="7">
-        <v>230</v>
-      </c>
-      <c r="N12" s="7">
-        <v>158035</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,49 +3368,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>2189</v>
+        <v>18314</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="7">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24465</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="7">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7">
+        <v>42780</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3700</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5889</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,49 +3419,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>166884</v>
+        <v>41228</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40046</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="7">
-        <v>199</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140728</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>115</v>
+      </c>
+      <c r="N14" s="7">
+        <v>81274</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="7">
-        <v>444</v>
-      </c>
-      <c r="N14" s="7">
-        <v>307611</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,102 +3470,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259280</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242150</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>501429</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5978</v>
+        <v>2189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3492</v>
+        <v>3700</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>9471</v>
+        <v>5889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,49 +3574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>669</v>
+        <v>1306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>669</v>
+        <v>4445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7420</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
-        <v>18314</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>18029</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>37</v>
+      </c>
+      <c r="N18" s="7">
+        <v>25449</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="7">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24465</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="7">
-        <v>59</v>
-      </c>
-      <c r="N18" s="7">
-        <v>42780</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,46 +3676,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>654</v>
+        <v>79649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="7">
+        <v>114</v>
+      </c>
+      <c r="I19" s="7">
+        <v>78387</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>695</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>230</v>
+      </c>
+      <c r="N19" s="7">
+        <v>158035</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1349</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>197</v>
@@ -3727,10 +3727,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="D20" s="7">
-        <v>41228</v>
+        <v>166884</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>198</v>
@@ -3742,10 +3742,10 @@
         <v>200</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="I20" s="7">
-        <v>40046</v>
+        <v>140728</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>201</v>
@@ -3757,10 +3757,10 @@
         <v>203</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="N20" s="7">
-        <v>81274</v>
+        <v>307611</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>204</v>
@@ -3778,49 +3778,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242150</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>501429</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,10 +3831,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>13398</v>
+        <v>2842</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>207</v>
@@ -3846,10 +3846,10 @@
         <v>209</v>
       </c>
       <c r="H22" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>21521</v>
+        <v>4395</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>210</v>
@@ -3861,16 +3861,16 @@
         <v>212</v>
       </c>
       <c r="M22" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>34919</v>
+        <v>7237</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>214</v>
@@ -3888,7 +3888,7 @@
         <v>3139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>215</v>
@@ -3909,7 +3909,7 @@
         <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3933,10 +3933,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>97963</v>
+        <v>13398</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>222</v>
@@ -3948,10 +3948,10 @@
         <v>224</v>
       </c>
       <c r="H24" s="7">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="I24" s="7">
-        <v>102852</v>
+        <v>21521</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>225</v>
@@ -3963,19 +3963,19 @@
         <v>227</v>
       </c>
       <c r="M24" s="7">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="N24" s="7">
-        <v>200815</v>
+        <v>34919</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>228</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,46 +3984,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D25" s="7">
-        <v>2842</v>
+        <v>97963</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>148</v>
+      </c>
+      <c r="I25" s="7">
+        <v>102852</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4395</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>289</v>
+      </c>
+      <c r="N25" s="7">
+        <v>200815</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M25" s="7">
-        <v>10</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7237</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>238</v>
@@ -4059,7 +4059,7 @@
         <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>243</v>
@@ -4092,13 +4092,13 @@
         <v>325454</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>443</v>
@@ -4107,13 +4107,13 @@
         <v>311518</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>916</v>
@@ -4122,13 +4122,13 @@
         <v>636971</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62207616-650F-4489-AC69-45618C57CED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0BCC88-8217-4326-B314-4E286BF5DA14}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,49 +4537,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>15607</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1147</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17576</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1147</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="M10" s="7">
-        <v>47</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33183</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,49 +4588,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>790</v>
+        <v>2445</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2445</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3540</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4330</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,49 +4639,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>97789</v>
+        <v>5504</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4113</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="7">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9617</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="7">
-        <v>131</v>
-      </c>
-      <c r="I12" s="7">
-        <v>93346</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M12" s="7">
-        <v>265</v>
-      </c>
-      <c r="N12" s="7">
-        <v>191135</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,49 +4690,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>727</v>
+        <v>16870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>29253</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="7">
+        <v>70</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46123</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2175</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2901</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,49 +4741,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>157808</v>
+        <v>50421</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
+        <v>76</v>
+      </c>
+      <c r="I14" s="7">
+        <v>51272</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>149</v>
+      </c>
+      <c r="N14" s="7">
+        <v>101694</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="7">
-        <v>198</v>
-      </c>
-      <c r="I14" s="7">
-        <v>142001</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M14" s="7">
-        <v>409</v>
-      </c>
-      <c r="N14" s="7">
-        <v>299809</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,102 +4792,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>369</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>272720</v>
+        <v>75240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>85785</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>531359</v>
+        <v>161026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5504</v>
+        <v>727</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2175</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2901</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4113</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M16" s="7">
-        <v>14</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9617</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,49 +4896,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2445</v>
+        <v>790</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3540</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4330</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2445</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,49 +4947,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15607</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
-        <v>16870</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>17576</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>47</v>
+      </c>
+      <c r="N18" s="7">
+        <v>33183</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="7">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7">
-        <v>29253</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M18" s="7">
-        <v>70</v>
-      </c>
-      <c r="N18" s="7">
-        <v>46123</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,49 +4998,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>97789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="7">
+        <v>131</v>
+      </c>
+      <c r="I19" s="7">
+        <v>93346</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1147</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>265</v>
+      </c>
+      <c r="N19" s="7">
+        <v>191135</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1147</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,40 +5049,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>50421</v>
+        <v>157808</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>198</v>
+      </c>
+      <c r="I20" s="7">
+        <v>142001</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="7">
-        <v>76</v>
-      </c>
-      <c r="I20" s="7">
-        <v>51272</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>317</v>
       </c>
       <c r="M20" s="7">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="N20" s="7">
-        <v>101694</v>
+        <v>299809</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>318</v>
@@ -5100,49 +5100,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>75240</v>
+        <v>272720</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>85785</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>238</v>
+        <v>731</v>
       </c>
       <c r="N21" s="7">
-        <v>161026</v>
+        <v>531359</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,49 +5153,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>21111</v>
+        <v>727</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3322</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="7">
-        <v>31</v>
-      </c>
-      <c r="I22" s="7">
-        <v>21689</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4048</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M22" s="7">
-        <v>61</v>
-      </c>
-      <c r="N22" s="7">
-        <v>42801</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5210,13 @@
         <v>3234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5225,13 +5225,13 @@
         <v>3540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5240,13 +5240,13 @@
         <v>6774</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,49 +5255,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>114659</v>
+        <v>21111</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>21689</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>61</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42801</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="7">
-        <v>176</v>
-      </c>
-      <c r="I24" s="7">
-        <v>122599</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M24" s="7">
-        <v>335</v>
-      </c>
-      <c r="N24" s="7">
-        <v>237258</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,46 +5306,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="D25" s="7">
-        <v>727</v>
+        <v>114659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>122599</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3322</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>335</v>
+      </c>
+      <c r="N25" s="7">
+        <v>237258</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4048</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>349</v>
@@ -5366,7 +5366,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>351</v>
@@ -5414,13 +5414,13 @@
         <v>347960</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>491</v>
@@ -5429,13 +5429,13 @@
         <v>344424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>969</v>
@@ -5444,13 +5444,13 @@
         <v>692385</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403D0C69-1082-403F-B890-AAB1C055FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C056466-4545-4198-BBD8-1B0DC9EB46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E21E17FA-F337-4EE4-B31E-17310DB52864}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE2A3785-FAAD-4599-9DA6-A3F69F480C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,1051 +67,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
+    <t>1,25%</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1164,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1218,39 +1260,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1302,7 +1344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1413,13 +1455,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1428,6 +1463,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1492,19 +1534,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C358B372-1E9A-4C21-A051-491953E0C8D0}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F89BE8-B718-4597-97E2-DCBEFFDE1E47}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1895,47 +1957,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,49 +2000,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,49 +2045,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,49 +2090,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,49 +2135,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
-      </c>
-      <c r="N14" s="7">
-        <v>59476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,102 +2180,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7">
-        <v>58384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>2006</v>
+        <v>67771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>1412</v>
+        <v>62826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="N16" s="7">
-        <v>3418</v>
+        <v>130596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,49 +2278,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7">
-        <v>667</v>
+        <v>49866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>3215</v>
+        <v>43034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N17" s="7">
-        <v>3882</v>
+        <v>92901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,49 +2329,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>13871</v>
+        <v>3939</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>16604</v>
+        <v>4464</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>30475</v>
+        <v>8403</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,49 +2380,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>91071</v>
+        <v>578</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>96882</v>
+        <v>1387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>187953</v>
+        <v>1965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,49 +2431,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>140796</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>123651</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>264447</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,102 +2482,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="D21" s="7">
-        <v>248411</v>
+        <v>122154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>352</v>
       </c>
       <c r="N21" s="7">
-        <v>490174</v>
+        <v>233865</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="D22" s="7">
-        <v>2006</v>
+        <v>108333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="I22" s="7">
-        <v>1412</v>
+        <v>84994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="N22" s="7">
-        <v>3418</v>
+        <v>193326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,49 +2586,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7">
-        <v>1245</v>
+        <v>63084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>3215</v>
+        <v>75394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="N23" s="7">
-        <v>4460</v>
+        <v>138477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,49 +2637,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>14489</v>
+        <v>10551</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>19772</v>
+        <v>15308</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>34261</v>
+        <v>25859</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,49 +2688,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>112950</v>
+        <v>667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>118428</v>
+        <v>1828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>231378</v>
+        <v>2495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,49 +2739,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>176103</v>
+        <v>2006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>147819</v>
+        <v>1412</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>323923</v>
+        <v>3418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,55 +2790,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>278</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184640</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>542</v>
+      </c>
+      <c r="N27" s="7">
+        <v>363575</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>264</v>
+      </c>
+      <c r="D28" s="7">
+        <v>176103</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
+        <v>219</v>
+      </c>
+      <c r="I28" s="7">
+        <v>147819</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>483</v>
+      </c>
+      <c r="N28" s="7">
+        <v>323923</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>171</v>
+      </c>
+      <c r="D29" s="7">
+        <v>112950</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>176</v>
+      </c>
+      <c r="I29" s="7">
+        <v>118428</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="7">
+        <v>347</v>
+      </c>
+      <c r="N29" s="7">
+        <v>231378</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14489</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19772</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>52</v>
+      </c>
+      <c r="N30" s="7">
+        <v>34261</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1245</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3215</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4460</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1412</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3418</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>462</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>306794</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>894</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>597440</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2825,8 +3165,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9FC65-7635-48BD-81ED-9A4E037A7837}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD003D5D-F151-4990-B57C-57587FA79A98}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2842,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3215,49 +3555,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1349</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,47 +3602,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,49 +3645,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,49 +3690,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,49 +3735,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>41228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7">
-        <v>40046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
-      </c>
-      <c r="N14" s="7">
-        <v>81274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,102 +3780,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>2189</v>
+        <v>100752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7">
-        <v>3700</v>
+        <v>93022</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="N16" s="7">
-        <v>5889</v>
+        <v>193775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,49 +3878,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>3139</v>
+        <v>44154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>1306</v>
+        <v>46396</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>4445</v>
+        <v>90550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,46 +3932,46 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>7420</v>
+        <v>8530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>18029</v>
+        <v>7170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>25449</v>
+        <v>15700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,49 +3980,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>79649</v>
+        <v>607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>78387</v>
+        <v>1278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>158035</v>
+        <v>1885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,49 +4031,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>166884</v>
+        <v>1384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>140728</v>
+        <v>2099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>307611</v>
+        <v>3483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,102 +4082,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259280</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242150</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>501429</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>2842</v>
+        <v>107358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="I22" s="7">
-        <v>4395</v>
+        <v>87752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="N22" s="7">
-        <v>7237</v>
+        <v>195111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,49 +4186,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>3139</v>
+        <v>53809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="I23" s="7">
-        <v>1975</v>
+        <v>56456</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="N23" s="7">
-        <v>5114</v>
+        <v>110265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,49 +4237,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4868</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
-        <v>13398</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="7">
-        <v>30</v>
-      </c>
       <c r="I24" s="7">
-        <v>21521</v>
+        <v>14351</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>34919</v>
+        <v>19220</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +4288,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>97963</v>
+        <v>2532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>102852</v>
+        <v>697</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>200815</v>
+        <v>3229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4339,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>208111</v>
+        <v>1458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>180775</v>
+        <v>2296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>388885</v>
+        <v>3754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,55 +4390,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>250</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170026</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161553</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>479</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331580</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>303</v>
+      </c>
+      <c r="D28" s="7">
+        <v>208111</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="7">
+        <v>256</v>
+      </c>
+      <c r="I28" s="7">
+        <v>180775</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" s="7">
+        <v>559</v>
+      </c>
+      <c r="N28" s="7">
+        <v>388885</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>141</v>
+      </c>
+      <c r="D29" s="7">
+        <v>97963</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="7">
+        <v>148</v>
+      </c>
+      <c r="I29" s="7">
+        <v>102852</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="7">
+        <v>289</v>
+      </c>
+      <c r="N29" s="7">
+        <v>200815</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
+        <v>13398</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>21521</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>34919</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3139</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1975</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5114</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2842</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4395</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7237</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>325454</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>443</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>311518</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>916</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>636971</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4147,8 +4765,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0BCC88-8217-4326-B314-4E286BF5DA14}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C14C3-CB7C-4CBE-911C-C79E70081362}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4164,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,47 +5157,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,49 +5200,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,49 +5245,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,49 +5290,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7">
-        <v>16870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,49 +5335,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
-      </c>
-      <c r="D14" s="7">
-        <v>50421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>76</v>
-      </c>
-      <c r="I14" s="7">
-        <v>51272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>149</v>
-      </c>
-      <c r="N14" s="7">
-        <v>101694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,102 +5380,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D16" s="7">
-        <v>727</v>
+        <v>109951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>2175</v>
+        <v>110789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="N16" s="7">
-        <v>2901</v>
+        <v>220741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,49 +5478,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>790</v>
+        <v>50614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>3540</v>
+        <v>55783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>4330</v>
+        <v>106397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,49 +5529,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>15607</v>
+        <v>12842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>17576</v>
+        <v>10232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>33183</v>
+        <v>23074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,49 +5580,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>97789</v>
+        <v>3234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>93346</v>
+        <v>1666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>191135</v>
+        <v>4901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,49 +5631,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>157808</v>
+        <v>727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>142001</v>
+        <v>1147</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>409</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>299809</v>
+        <v>1874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,102 +5682,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="D21" s="7">
-        <v>272720</v>
+        <v>177368</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>179617</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>731</v>
+        <v>505</v>
       </c>
       <c r="N21" s="7">
-        <v>531359</v>
+        <v>356986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D22" s="7">
-        <v>727</v>
+        <v>98278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="I22" s="7">
-        <v>3322</v>
+        <v>82484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="N22" s="7">
-        <v>4048</v>
+        <v>180762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,49 +5786,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>3234</v>
+        <v>64045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>3540</v>
+        <v>66817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="N23" s="7">
-        <v>6774</v>
+        <v>130861</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,49 +5837,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>21111</v>
+        <v>8269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>21689</v>
+        <v>11458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>42801</v>
+        <v>19727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,49 +5888,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>114659</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>122599</v>
+        <v>1874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>55</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>335</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>237258</v>
+        <v>1874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +5939,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>208229</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>193273</v>
+        <v>2175</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
-        <v>558</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>401503</v>
+        <v>2175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,55 +5990,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>284</v>
+      </c>
+      <c r="D28" s="7">
+        <v>208229</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
+        <v>274</v>
+      </c>
+      <c r="I28" s="7">
+        <v>193274</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="7">
+        <v>558</v>
+      </c>
+      <c r="N28" s="7">
+        <v>401503</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>159</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114659</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="7">
+        <v>176</v>
+      </c>
+      <c r="I29" s="7">
+        <v>122600</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="7">
+        <v>335</v>
+      </c>
+      <c r="N29" s="7">
+        <v>237258</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>21111</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="7">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7">
+        <v>21689</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M30" s="7">
+        <v>61</v>
+      </c>
+      <c r="N30" s="7">
+        <v>42801</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3234</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3540</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6774</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>727</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3322</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4048</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347960</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>491</v>
       </c>
-      <c r="I27" s="7">
-        <v>344424</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="I33" s="7">
+        <v>344425</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>969</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>692385</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C056466-4545-4198-BBD8-1B0DC9EB46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA596979-F844-4350-9D48-C7DF46C59AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE2A3785-FAAD-4599-9DA6-A3F69F480C9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1E5D233-6A63-4C25-98D0-98C325D64548}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="366">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -97,1063 +97,1045 @@
     <t>55,48%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>56,24%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F89BE8-B718-4597-97E2-DCBEFFDE1E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209260D2-2AB5-4A38-AAFB-C340EEDBA4C5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3165,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD003D5D-F151-4990-B57C-57587FA79A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEE1288-43C4-46C3-9A28-A444E3297DB8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3899,13 +3881,13 @@
         <v>46396</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -3914,13 +3896,13 @@
         <v>90550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3917,13 @@
         <v>8530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3950,13 +3932,13 @@
         <v>7170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3965,13 +3947,13 @@
         <v>15700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3968,13 @@
         <v>607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4001,13 +3983,13 @@
         <v>1278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4022,7 +4004,7 @@
         <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4019,13 @@
         <v>1384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4052,13 +4034,13 @@
         <v>2099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4070,10 +4052,10 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4123,13 @@
         <v>107358</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -4156,13 +4138,13 @@
         <v>87752</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4171,13 +4153,13 @@
         <v>195111</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4174,13 @@
         <v>53809</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -4207,13 +4189,13 @@
         <v>56456</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -4222,13 +4204,13 @@
         <v>110265</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4225,13 @@
         <v>4868</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -4258,13 +4240,13 @@
         <v>14351</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -4273,13 +4255,13 @@
         <v>19220</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,10 +4276,10 @@
         <v>2532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>211</v>
@@ -4309,13 +4291,13 @@
         <v>697</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4324,13 +4306,13 @@
         <v>3229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>1458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4360,13 +4342,13 @@
         <v>2296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4375,13 +4357,13 @@
         <v>3754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4431,13 @@
         <v>208111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>256</v>
@@ -4464,13 +4446,13 @@
         <v>180775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
@@ -4479,13 +4461,13 @@
         <v>388885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4482,13 @@
         <v>97963</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>148</v>
@@ -4515,13 +4497,13 @@
         <v>102852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>289</v>
@@ -4530,13 +4512,13 @@
         <v>200815</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>13398</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -4566,10 +4548,10 @@
         <v>21521</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>244</v>
@@ -4581,13 +4563,13 @@
         <v>34919</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4584,13 @@
         <v>3139</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4617,13 +4599,13 @@
         <v>1975</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -4635,10 +4617,10 @@
         <v>251</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4635,13 @@
         <v>2842</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4668,13 +4650,13 @@
         <v>4395</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -4686,10 +4668,10 @@
         <v>55</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C14C3-CB7C-4CBE-911C-C79E70081362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203BFB49-6F18-4127-A0FF-F6D61C063E11}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4782,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5415,13 @@
         <v>109951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5448,13 +5430,13 @@
         <v>110789</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -5463,13 +5445,13 @@
         <v>220741</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5466,13 @@
         <v>50614</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5499,13 +5481,13 @@
         <v>55783</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -5514,13 +5496,13 @@
         <v>106397</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5517,13 @@
         <v>12842</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5550,13 +5532,13 @@
         <v>10232</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5565,13 +5547,13 @@
         <v>23074</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5568,13 @@
         <v>3234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5601,13 +5583,13 @@
         <v>1666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5616,13 +5598,13 @@
         <v>4901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5625,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5652,13 +5634,13 @@
         <v>1147</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5667,13 +5649,13 @@
         <v>1874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5723,13 @@
         <v>98278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -5756,13 +5738,13 @@
         <v>82484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -5771,13 +5753,13 @@
         <v>180762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5774,13 @@
         <v>64045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -5807,13 +5789,13 @@
         <v>66817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -5822,13 +5804,13 @@
         <v>130861</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5825,13 @@
         <v>8269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5858,13 +5840,13 @@
         <v>11458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -5873,13 +5855,13 @@
         <v>19727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5882,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5912,10 +5894,10 @@
         <v>55</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5924,13 +5906,13 @@
         <v>1874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5933,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5960,13 +5942,13 @@
         <v>2175</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5978,10 +5960,10 @@
         <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,28 +6031,28 @@
         <v>208229</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>274</v>
       </c>
       <c r="I28" s="7">
-        <v>193274</v>
+        <v>193273</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>558</v>
@@ -6079,13 +6061,13 @@
         <v>401503</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,28 +6082,28 @@
         <v>114659</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H29" s="7">
         <v>176</v>
       </c>
       <c r="I29" s="7">
-        <v>122600</v>
+        <v>122599</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>335</v>
@@ -6130,13 +6112,13 @@
         <v>237258</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6133,13 @@
         <v>21111</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -6166,13 +6148,13 @@
         <v>21689</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -6181,13 +6163,13 @@
         <v>42801</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6184,13 @@
         <v>3234</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>142</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6217,13 +6199,13 @@
         <v>3540</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6232,13 +6214,13 @@
         <v>6774</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>365</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>366</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6235,13 @@
         <v>727</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6268,13 +6250,13 @@
         <v>3322</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6283,13 +6265,13 @@
         <v>4048</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6298,7 @@
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>344425</v>
+        <v>344424</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>

--- a/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA596979-F844-4350-9D48-C7DF46C59AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80E1BE4-1D89-4779-B6E1-839FB02D0415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1E5D233-6A63-4C25-98D0-98C325D64548}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{403F4F06-C70A-4AE0-ABDF-CF203C31F8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="367">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,100 +94,100 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
     <t>55,48%</t>
   </si>
   <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>50,2%</t>
+    <t>50,37%</t>
   </si>
   <si>
     <t>60,76%</t>
   </si>
   <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -196,18 +196,18 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>0,54%</t>
   </si>
   <si>
@@ -217,925 +217,928 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>8,56%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>1,23%</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209260D2-2AB5-4A38-AAFB-C340EEDBA4C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B4FD7-5411-4198-A6D7-6DC037BE5D54}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2209,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>67771</v>
+        <v>62826</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2224,10 +2227,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>62826</v>
+        <v>67771</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2260,10 +2263,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>49866</v>
+        <v>43034</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2275,10 +2278,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>43034</v>
+        <v>49866</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2311,10 +2314,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>3939</v>
+        <v>4464</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2326,10 +2329,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4464</v>
+        <v>3939</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2362,10 +2365,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>578</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2377,10 +2380,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1387</v>
+        <v>578</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2464,25 +2467,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>184</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122154</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2517,10 +2520,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="D22" s="7">
-        <v>108333</v>
+        <v>84994</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>59</v>
@@ -2532,10 +2535,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="I22" s="7">
-        <v>84994</v>
+        <v>108333</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>62</v>
@@ -2568,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>63084</v>
+        <v>75394</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>68</v>
@@ -2583,10 +2586,10 @@
         <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I23" s="7">
-        <v>75394</v>
+        <v>63084</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>71</v>
@@ -2619,10 +2622,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>10551</v>
+        <v>15308</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>77</v>
@@ -2634,10 +2637,10 @@
         <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>15308</v>
+        <v>10551</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>80</v>
@@ -2670,31 +2673,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>667</v>
+        <v>1828</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>667</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1828</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>90</v>
@@ -2721,34 +2724,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2006</v>
+        <v>1412</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2006</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2757,13 +2760,13 @@
         <v>3418</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,25 +2775,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>278</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184640</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -2825,34 +2828,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>219</v>
+      </c>
+      <c r="D28" s="7">
+        <v>147819</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
         <v>264</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>176103</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="7">
-        <v>219</v>
-      </c>
-      <c r="I28" s="7">
-        <v>147819</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>483</v>
@@ -2861,13 +2864,13 @@
         <v>323923</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,34 +2879,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7">
+        <v>118428</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
         <v>171</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>112950</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="7">
-        <v>176</v>
-      </c>
-      <c r="I29" s="7">
-        <v>118428</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>347</v>
@@ -2912,13 +2915,13 @@
         <v>231378</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,34 +2930,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19772</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
         <v>22</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>14489</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="7">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19772</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -2963,13 +2966,13 @@
         <v>34261</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,34 +2981,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3215</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>1245</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3215</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3014,13 +3017,13 @@
         <v>4460</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,34 +3032,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1412</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2006</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -3065,13 +3068,13 @@
         <v>3418</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,25 +3083,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>462</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>306794</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEE1288-43C4-46C3-9A28-A444E3297DB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C89A31-26D4-43E5-BAA6-B257431486D7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3809,34 +3812,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>133</v>
+      </c>
+      <c r="D16" s="7">
+        <v>93022</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
         <v>147</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>100752</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>133</v>
-      </c>
-      <c r="I16" s="7">
-        <v>93022</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>280</v>
@@ -3845,13 +3848,13 @@
         <v>193775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,34 +3863,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7">
+        <v>46396</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="7">
         <v>61</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>44154</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H17" s="7">
-        <v>66</v>
-      </c>
-      <c r="I17" s="7">
-        <v>46396</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -3896,13 +3899,13 @@
         <v>90550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,34 +3914,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7170</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8530</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7170</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3947,13 +3950,13 @@
         <v>15700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,34 +3965,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>607</v>
+        <v>1278</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1278</v>
+        <v>607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3998,13 +4001,13 @@
         <v>1885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,34 +4016,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2099</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1384</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2099</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4049,13 +4052,13 @@
         <v>3483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,25 +4067,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4117,34 +4120,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7">
+        <v>87752</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="7">
         <v>156</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>107358</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="7">
-        <v>123</v>
-      </c>
-      <c r="I22" s="7">
-        <v>87752</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -4153,13 +4156,13 @@
         <v>195111</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,34 +4171,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7">
+        <v>56456</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="7">
         <v>80</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>53809</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="7">
-        <v>82</v>
-      </c>
-      <c r="I23" s="7">
-        <v>56456</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -4204,13 +4207,13 @@
         <v>110265</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,34 +4222,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14351</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>4868</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14351</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -4255,13 +4258,13 @@
         <v>19220</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,34 +4273,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>697</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2532</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>697</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4306,13 +4309,13 @@
         <v>3229</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,34 +4324,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2296</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1458</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2296</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4357,13 +4360,13 @@
         <v>3754</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,25 +4375,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161553</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>250</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170026</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161553</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4425,34 +4428,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>256</v>
+      </c>
+      <c r="D28" s="7">
+        <v>180775</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="7">
         <v>303</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>208111</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="7">
-        <v>256</v>
-      </c>
-      <c r="I28" s="7">
-        <v>180775</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
@@ -4476,10 +4479,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D29" s="7">
-        <v>97963</v>
+        <v>102852</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>231</v>
@@ -4491,10 +4494,10 @@
         <v>233</v>
       </c>
       <c r="H29" s="7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I29" s="7">
-        <v>102852</v>
+        <v>97963</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>234</v>
@@ -4515,10 +4518,10 @@
         <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,31 +4530,31 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>21521</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="7">
         <v>20</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>13398</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H30" s="7">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21521</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>244</v>
@@ -4563,13 +4566,13 @@
         <v>34919</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,34 +4581,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1975</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3139</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1975</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -4614,13 +4617,13 @@
         <v>5114</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,34 +4632,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4395</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2842</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7">
-        <v>4395</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -4665,13 +4668,13 @@
         <v>7237</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,25 +4683,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>443</v>
+      </c>
+      <c r="D33" s="7">
+        <v>311518</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>325454</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>443</v>
-      </c>
-      <c r="I33" s="7">
-        <v>311518</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203BFB49-6F18-4127-A0FF-F6D61C063E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E5327C-5F53-4FBA-BF6A-3F2D32770ABE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,34 +5412,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>110789</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7">
         <v>154</v>
       </c>
-      <c r="D16" s="7">
-        <v>109951</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
       <c r="I16" s="7">
-        <v>110789</v>
+        <v>109952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -5445,13 +5448,13 @@
         <v>220741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,34 +5463,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55783</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
         <v>71</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>50614</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H17" s="7">
-        <v>81</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55783</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -5496,13 +5499,13 @@
         <v>106397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,34 +5514,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10232</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="7">
         <v>18</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>12842</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10232</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5547,13 +5550,13 @@
         <v>23074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,34 +5565,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1666</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3234</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1666</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5598,13 +5601,13 @@
         <v>4901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,34 +5616,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>727</v>
+        <v>1147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1147</v>
+        <v>727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5649,13 +5652,13 @@
         <v>1874</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,25 +5667,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7">
+        <v>179617</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>248</v>
       </c>
-      <c r="D21" s="7">
-        <v>177368</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>257</v>
-      </c>
       <c r="I21" s="7">
-        <v>179617</v>
+        <v>177369</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5717,34 +5720,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>116</v>
+      </c>
+      <c r="D22" s="7">
+        <v>82484</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="7">
         <v>130</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>98278</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H22" s="7">
-        <v>116</v>
-      </c>
-      <c r="I22" s="7">
-        <v>82484</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -5753,13 +5756,13 @@
         <v>180762</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,34 +5771,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7">
+        <v>66817</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="7">
         <v>88</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>64045</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="7">
-        <v>95</v>
-      </c>
-      <c r="I23" s="7">
-        <v>66817</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>183</v>
@@ -5804,13 +5807,13 @@
         <v>130861</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,28 +5822,28 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11458</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="7">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>8269</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H24" s="7">
-        <v>17</v>
-      </c>
-      <c r="I24" s="7">
-        <v>11458</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>317</v>
@@ -5870,34 +5873,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1874</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1874</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5906,13 +5909,13 @@
         <v>1874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,34 +5924,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2175</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5957,13 +5960,13 @@
         <v>2175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,25 +5975,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -6025,34 +6028,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>274</v>
+      </c>
+      <c r="D28" s="7">
+        <v>193274</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="7">
         <v>284</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>208229</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="7">
-        <v>274</v>
-      </c>
-      <c r="I28" s="7">
-        <v>193273</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>558</v>
@@ -6061,13 +6064,13 @@
         <v>401503</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,34 +6079,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7">
+        <v>122600</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" s="7">
         <v>159</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>114659</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H29" s="7">
-        <v>176</v>
-      </c>
-      <c r="I29" s="7">
-        <v>122599</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>335</v>
@@ -6112,13 +6115,13 @@
         <v>237258</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,34 +6130,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>21689</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="7">
         <v>30</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>21111</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H30" s="7">
-        <v>31</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21689</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -6163,13 +6166,13 @@
         <v>42801</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,34 +6181,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3540</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3234</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3540</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6214,13 +6217,13 @@
         <v>6774</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,31 +6232,31 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3322</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>727</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3322</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>364</v>
@@ -6265,13 +6268,13 @@
         <v>4048</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,25 +6283,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>491</v>
+      </c>
+      <c r="D33" s="7">
+        <v>344425</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>478</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347960</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>491</v>
-      </c>
-      <c r="I33" s="7">
-        <v>344424</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
